--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6235686445575426</v>
+        <v>0.8109359125033627</v>
       </c>
       <c r="D2">
-        <v>0.5329391322679204</v>
+        <v>0.4230429764014652</v>
       </c>
       <c r="E2">
         <v>0.5738790581392887</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.364399111899784</v>
+        <v>1.347037848281134</v>
       </c>
       <c r="D3">
-        <v>0.1725029162826961</v>
+        <v>0.1868781134112933</v>
       </c>
       <c r="E3">
         <v>0.5738790581392887</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.309887218227651</v>
+        <v>1.268430223226455</v>
       </c>
       <c r="D4">
-        <v>0.190293703994403</v>
+        <v>0.2132608143202759</v>
       </c>
       <c r="E4">
         <v>0.5738790581392887</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.02508275316488989</v>
+        <v>0.02890456400193659</v>
       </c>
       <c r="D5">
-        <v>0.9799899500355147</v>
+        <v>0.977109706868786</v>
       </c>
       <c r="E5">
         <v>0.5738790581392887</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.6440995851146688</v>
+        <v>0.6371744905960612</v>
       </c>
       <c r="D6">
-        <v>0.5195401751665254</v>
+        <v>0.5282786689916827</v>
       </c>
       <c r="E6">
         <v>0.5671322895709933</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5777005628520645</v>
+        <v>0.7859003828187799</v>
       </c>
       <c r="D7">
-        <v>0.5634921112559521</v>
+        <v>0.4373689178495577</v>
       </c>
       <c r="E7">
         <v>0.5671322895709933</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.6196914531220301</v>
+        <v>-0.6496292607672908</v>
       </c>
       <c r="D8">
-        <v>0.5354889625276651</v>
+        <v>0.520296798542649</v>
       </c>
       <c r="E8">
         <v>0.5671322895709933</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.003494227420972684</v>
+        <v>-0.003706835317814666</v>
       </c>
       <c r="D9">
-        <v>0.9972121538802643</v>
+        <v>0.9970640446400343</v>
       </c>
       <c r="E9">
         <v>0.5597891279139339</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.320992195330031</v>
+        <v>-1.52837306847804</v>
       </c>
       <c r="D10">
-        <v>0.1865639502091068</v>
+        <v>0.1356709250159636</v>
       </c>
       <c r="E10">
         <v>0.5597891279139339</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.281229314516812</v>
+        <v>-1.420207278379069</v>
       </c>
       <c r="D11">
-        <v>0.2001720901014967</v>
+        <v>0.1646528726724199</v>
       </c>
       <c r="E11">
         <v>0.5598297583060369</v>
